--- a/src/excel/SpanishEnglish-VERBS11.xlsx
+++ b/src/excel/SpanishEnglish-VERBS11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\NetBeansProjects\Produccion1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\JavaVSCodeProjects\LecturaImagenes\ReadingImages\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8750749-7823-4687-80EA-CD24631C5129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0904DD6-1B42-48FC-92EE-D785BD35DD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{48FDB698-C550-483D-A239-C921E9EAE320}"/>
   </bookViews>
@@ -150,9 +150,6 @@
     <t>poner precio</t>
   </si>
   <si>
-    <t>lamentar</t>
-  </si>
-  <si>
     <t>parecerse</t>
   </si>
   <si>
@@ -322,6 +319,9 @@
   </si>
   <si>
     <t>dim</t>
+  </si>
+  <si>
+    <t>lamentar, arrepentirse</t>
   </si>
 </sst>
 </file>
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E80C80-05A9-4CA4-AEA0-B97E37B4C112}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
         <v>36</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -794,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -808,10 +808,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -836,10 +836,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -850,10 +850,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -878,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -906,10 +906,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
@@ -937,7 +937,7 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -976,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
         <v>26</v>
@@ -1032,10 +1032,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
         <v>30</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
         <v>32</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
         <v>33</v>
@@ -1133,10 +1133,10 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
         <v>34</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
         <v>35</v>
